--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\实验室相关\LLM agent小组\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\实验室相关\LLM agent小组\Collective Intelligence投稿\ICLR26\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370617B-870A-46FC-A600-06E3ADAF94BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC04C9-79C6-49B3-83F2-0F72D5D146BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -40,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MATH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HumanEval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num_agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,14 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MMLU-Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonGen-Hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>['glm', 'internlm20b', 'qwen7b', 'gemma27b', 'qwen32b']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +408,26 @@
   </si>
   <si>
     <t>['glm', 'qwen7b', 'qwen32b', 'gemma27b', 'gpt4omini']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commonsense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -782,42 +785,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -843,10 +846,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -872,10 +875,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -901,10 +904,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -930,10 +933,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -959,10 +962,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -988,10 +991,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1017,10 +1020,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1046,13 +1049,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -1061,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>0.14000000000000001</v>
@@ -1081,13 +1084,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -1096,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>0.53</v>
@@ -1116,13 +1119,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1131,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>0.25</v>
@@ -1151,13 +1154,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1166,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
         <v>0.26</v>
@@ -1186,13 +1189,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -1201,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
         <v>0.38</v>
@@ -1221,13 +1224,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1236,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
         <v>0.48</v>
@@ -1256,13 +1259,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1271,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>0.46</v>
@@ -1291,13 +1294,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1306,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>0.47</v>
@@ -1326,13 +1329,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
         <v>0.19</v>
@@ -1361,13 +1364,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -1376,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>0.62</v>
@@ -1396,13 +1399,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
@@ -1411,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <v>0.27</v>
@@ -1431,13 +1434,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -1446,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
         <v>0.24</v>
@@ -1466,13 +1469,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -1481,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
         <v>0.42</v>
@@ -1501,13 +1504,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -1516,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1">
         <v>0.56000000000000005</v>
@@ -1536,13 +1539,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -1551,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1">
         <v>0.35</v>
@@ -1571,14 +1574,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
         <v>0.53</v>
@@ -1606,22 +1609,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G26" s="1">
         <v>0.35</v>
@@ -1641,10 +1644,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -1653,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
         <v>0.38</v>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -1685,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1">
         <v>0.28000000000000003</v>
@@ -1705,10 +1708,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -1717,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
         <v>0.33</v>
@@ -1737,10 +1740,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1749,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1">
         <v>0.48</v>
@@ -1769,10 +1772,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1781,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1">
         <v>0.42</v>
@@ -1801,13 +1804,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
@@ -1816,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1">
         <v>0.42</v>
@@ -1836,10 +1839,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -1848,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1">
         <v>0.41</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
@@ -1880,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1">
         <v>0.35</v>
@@ -1900,10 +1903,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
@@ -1912,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1">
         <v>0.46</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1944,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
         <v>0.43</v>
@@ -1964,10 +1967,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -1976,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1">
         <v>0.44</v>
@@ -1996,13 +1999,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -2011,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G38" s="1">
         <v>0.48</v>
@@ -2031,10 +2034,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -2043,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1">
         <v>0.59</v>
@@ -2063,10 +2066,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
@@ -2075,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1">
         <v>0.54</v>
@@ -2095,10 +2098,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -2107,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
         <v>0.5</v>
@@ -2127,10 +2130,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
@@ -2139,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1">
         <v>0.54</v>
@@ -2159,10 +2162,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
@@ -2171,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1">
         <v>0.53</v>
@@ -2191,13 +2194,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -2206,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" s="1">
         <v>0.39</v>
@@ -2226,13 +2229,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -2241,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G45" s="1">
         <v>0.4</v>
@@ -2261,13 +2264,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -2276,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G46" s="1">
         <v>0.56000000000000005</v>
@@ -2296,13 +2299,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
@@ -2311,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G47" s="1">
         <v>0.41</v>
@@ -2331,13 +2334,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
@@ -2346,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G48" s="1">
         <v>0.6</v>
@@ -2366,13 +2369,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -2381,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G49" s="1">
         <v>0.38</v>
@@ -2401,13 +2404,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1">
         <v>5</v>
@@ -2416,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G50" s="1">
         <v>0.36</v>
@@ -2436,13 +2439,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -2451,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G51" s="1">
         <v>0.53</v>
@@ -2471,13 +2474,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
@@ -2486,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G52" s="1">
         <v>0.45</v>
@@ -2506,13 +2509,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>5</v>
@@ -2521,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G53" s="1">
         <v>0.49</v>
@@ -2541,13 +2544,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1">
         <v>8</v>
@@ -2556,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G54" s="1">
         <v>0.44</v>
@@ -2576,13 +2579,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D55" s="1">
         <v>8</v>
@@ -2591,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1">
         <v>0.5</v>
@@ -2611,13 +2614,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D56" s="1">
         <v>8</v>
@@ -2626,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1">
         <v>0.4</v>
@@ -2646,13 +2649,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
@@ -2661,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" s="1">
         <v>0.39</v>
@@ -2681,13 +2684,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D58" s="1">
         <v>8</v>
@@ -2696,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1">
         <v>0.42</v>
@@ -2716,13 +2719,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D59" s="1">
         <v>8</v>
@@ -2731,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G59" s="1">
         <v>0.44</v>
@@ -2751,13 +2754,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -2766,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G60" s="1">
         <v>0.49</v>
@@ -2786,13 +2789,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1">
         <v>8</v>
@@ -2801,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G61" s="1">
         <v>0.52</v>
@@ -2821,13 +2824,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1">
         <v>8</v>
@@ -2836,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G62" s="1">
         <v>0.41</v>
@@ -2856,13 +2859,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1">
         <v>8</v>
@@ -2871,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G63" s="1">
         <v>0.41</v>
@@ -2891,13 +2894,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -2906,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G64" s="1">
         <v>0.14000000000000001</v>
@@ -2926,13 +2929,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -2941,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1">
         <v>0.54</v>
@@ -2961,13 +2964,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -2976,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1">
         <v>0.25</v>
@@ -2996,13 +2999,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3011,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1">
         <v>0.28000000000000003</v>
@@ -3031,13 +3034,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -3046,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1">
         <v>0.38</v>
@@ -3066,13 +3069,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -3081,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1">
         <v>0.42</v>
@@ -3101,13 +3104,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -3116,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1">
         <v>0.45</v>
@@ -3136,13 +3139,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -3151,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1">
         <v>0.45</v>
@@ -3171,13 +3174,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -3186,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1">
         <v>0.21</v>
@@ -3206,13 +3209,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -3221,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1">
         <v>0.6</v>
@@ -3241,13 +3244,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -3256,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1">
         <v>0.24</v>
@@ -3276,13 +3279,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -3291,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1">
         <v>0.22</v>
@@ -3311,13 +3314,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -3326,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1">
         <v>0.42</v>
@@ -3346,13 +3349,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -3361,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1">
         <v>0.56000000000000005</v>
@@ -3381,13 +3384,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -3396,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1">
         <v>0.35</v>
@@ -3416,14 +3419,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D79" s="1">
         <v>5</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G79" s="1">
         <v>0.53</v>
@@ -3451,22 +3454,22 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="1">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1">
-        <v>3</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G80" s="1">
         <v>0.33</v>
@@ -3486,10 +3489,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -3498,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G81" s="1">
         <v>0.37</v>
@@ -3518,10 +3521,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1">
         <v>5</v>
@@ -3530,7 +3533,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G82" s="1">
         <v>0.25</v>
@@ -3550,10 +3553,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1">
         <v>5</v>
@@ -3562,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G83" s="1">
         <v>0.3</v>
@@ -3582,10 +3585,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1">
         <v>5</v>
@@ -3594,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G84" s="1">
         <v>0.42</v>
@@ -3614,10 +3617,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
@@ -3626,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G85" s="1">
         <v>0.41</v>
@@ -3646,13 +3649,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -3661,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G86" s="1">
         <v>0.4</v>
@@ -3681,10 +3684,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
@@ -3693,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G87" s="1">
         <v>0.4</v>
@@ -3713,10 +3716,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D88" s="1">
         <v>5</v>
@@ -3725,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G88" s="1">
         <v>0.32</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -3757,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G89" s="1">
         <v>0.43</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G90" s="1">
         <v>0.47</v>
@@ -3809,10 +3812,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -3821,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G91" s="1">
         <v>0.45</v>
@@ -3841,13 +3844,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>5</v>
@@ -3856,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1">
         <v>0.51</v>
@@ -3876,10 +3879,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D93" s="1">
         <v>5</v>
@@ -3888,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G93" s="1">
         <v>0.57999999999999996</v>
@@ -3908,10 +3911,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -3920,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G94" s="1">
         <v>0.55000000000000004</v>
@@ -3940,10 +3943,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
@@ -3952,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1">
         <v>0.54</v>
@@ -3972,10 +3975,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -3984,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G96" s="1">
         <v>0.54</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
@@ -4016,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G97" s="1">
         <v>0.48</v>
@@ -4036,13 +4039,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D98" s="1">
         <v>5</v>
@@ -4051,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G98" s="1">
         <v>0.42</v>
@@ -4071,13 +4074,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D99" s="1">
         <v>5</v>
@@ -4086,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G99" s="1">
         <v>0.4</v>
@@ -4106,13 +4109,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -4121,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G100" s="1">
         <v>0.51</v>
@@ -4141,13 +4144,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -4156,7 +4159,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G101" s="1">
         <v>0.45</v>
@@ -4176,13 +4179,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -4191,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G102" s="1">
         <v>0.55000000000000004</v>
@@ -4211,13 +4214,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
@@ -4226,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G103" s="1">
         <v>0.43</v>
@@ -4246,13 +4249,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
@@ -4261,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G104" s="1">
         <v>0.37</v>
@@ -4281,13 +4284,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D105" s="1">
         <v>5</v>
@@ -4296,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G105" s="1">
         <v>0.55000000000000004</v>
@@ -4316,13 +4319,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -4331,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G106" s="1">
         <v>0.44</v>
@@ -4351,13 +4354,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D107" s="1">
         <v>5</v>
@@ -4366,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G107" s="1">
         <v>0.44</v>
@@ -4386,13 +4389,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D108" s="1">
         <v>8</v>
@@ -4401,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G108" s="1">
         <v>0.36</v>
@@ -4421,13 +4424,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -4436,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G109" s="1">
         <v>0.55000000000000004</v>
@@ -4456,13 +4459,13 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
@@ -4471,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G110" s="1">
         <v>0.41</v>
@@ -4491,13 +4494,13 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
@@ -4506,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G111" s="1">
         <v>0.42</v>
@@ -4526,13 +4529,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -4541,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G112" s="1">
         <v>0.43</v>
@@ -4561,13 +4564,13 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -4576,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G113" s="1">
         <v>0.47</v>
@@ -4596,13 +4599,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -4611,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G114" s="1">
         <v>0.49</v>
@@ -4631,13 +4634,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D115" s="1">
         <v>8</v>
@@ -4646,7 +4649,7 @@
         <v>3</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G115" s="1">
         <v>0.54</v>
@@ -4666,13 +4669,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D116" s="1">
         <v>8</v>
@@ -4681,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G116" s="1">
         <v>0.42</v>
@@ -4701,13 +4704,13 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D117" s="1">
         <v>8</v>
@@ -4716,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G117" s="1">
         <v>0.4</v>
